--- a/spliced/falling/2023-03-25_18-03-09/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-09/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.436809062957764</v>
+        <v>-3.373677730560303</v>
       </c>
       <c r="B2" t="n">
-        <v>8.002476692199707</v>
+        <v>8.367032051086426</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.409347295761108</v>
+        <v>-1.811180233955384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.233324527740479</v>
+        <v>-3.436809062957764</v>
       </c>
       <c r="B3" t="n">
-        <v>7.347033500671387</v>
+        <v>8.002476692199707</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.329159736633301</v>
+        <v>-2.409347295761108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.557640552520752</v>
+        <v>-4.233324527740479</v>
       </c>
       <c r="B4" t="n">
-        <v>5.48013973236084</v>
+        <v>7.347033500671387</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.308228492736816</v>
+        <v>-3.329159736633301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-6.2513108253479</v>
+        <v>-4.557640552520752</v>
       </c>
       <c r="B5" t="n">
-        <v>4.66443920135498</v>
+        <v>5.48013973236084</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.362371444702148</v>
+        <v>-4.308228492736816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-6.407595157623291</v>
+        <v>-6.2513108253479</v>
       </c>
       <c r="B6" t="n">
-        <v>5.533173084259033</v>
+        <v>4.66443920135498</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.768703460693359</v>
+        <v>-5.362371444702148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-6.354794025421143</v>
+        <v>-6.407595157623291</v>
       </c>
       <c r="B7" t="n">
-        <v>3.896303415298462</v>
+        <v>5.533173084259033</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.691534996032715</v>
+        <v>-4.768703460693359</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>55.61550140380859</v>
+        <v>-6.354794025421143</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.603207588195801</v>
+        <v>3.896303415298462</v>
       </c>
       <c r="C8" t="n">
-        <v>15.50844955444336</v>
+        <v>-3.691534996032715</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.817588806152344</v>
+        <v>55.61550140380859</v>
       </c>
       <c r="B9" t="n">
-        <v>5.203746795654297</v>
+        <v>-7.603207588195801</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.701224803924561</v>
+        <v>15.50844955444336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.208892345428467</v>
+        <v>-3.817588806152344</v>
       </c>
       <c r="B10" t="n">
-        <v>4.523828029632568</v>
+        <v>5.203746795654297</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.306243419647217</v>
+        <v>-4.701224803924561</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.054627418518066</v>
+        <v>2.208892345428467</v>
       </c>
       <c r="B11" t="n">
-        <v>6.320723056793213</v>
+        <v>4.523828029632568</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.26066255569458</v>
+        <v>-5.306243419647217</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.682106018066406</v>
+        <v>4.054627418518066</v>
       </c>
       <c r="B12" t="n">
-        <v>6.276570796966553</v>
+        <v>6.320723056793213</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.233500480651856</v>
+        <v>-5.26066255569458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.067971229553223</v>
+        <v>3.682106018066406</v>
       </c>
       <c r="B13" t="n">
-        <v>7.197247505187988</v>
+        <v>6.276570796966553</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.232089042663574</v>
+        <v>-4.233500480651856</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.399141788482666</v>
+        <v>4.067971229553223</v>
       </c>
       <c r="B14" t="n">
-        <v>6.60714864730835</v>
+        <v>7.197247505187988</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.322453498840332</v>
+        <v>-6.232089042663574</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.337307453155518</v>
+        <v>3.399141788482666</v>
       </c>
       <c r="B15" t="n">
-        <v>7.003424167633057</v>
+        <v>6.60714864730835</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.783712863922119</v>
+        <v>-4.322453498840332</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.072117805480957</v>
+        <v>2.337307453155518</v>
       </c>
       <c r="B16" t="n">
-        <v>7.399670124053955</v>
+        <v>7.003424167633057</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.612285137176514</v>
+        <v>-5.783712863922119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.665160179138184</v>
+        <v>2.072117805480957</v>
       </c>
       <c r="B17" t="n">
-        <v>6.522679805755615</v>
+        <v>7.399670124053955</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.401774883270264</v>
+        <v>-5.612285137176514</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.009289264678955</v>
+        <v>2.665160179138184</v>
       </c>
       <c r="B18" t="n">
-        <v>6.934535980224609</v>
+        <v>6.522679805755615</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.890542030334473</v>
+        <v>-4.401774883270264</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.372682571411133</v>
+        <v>3.009289264678955</v>
       </c>
       <c r="B19" t="n">
-        <v>7.015328407287598</v>
+        <v>6.934535980224609</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.779996871948242</v>
+        <v>-4.890542030334473</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.250783443450928</v>
+        <v>3.372682571411133</v>
       </c>
       <c r="B20" t="n">
-        <v>6.881857395172119</v>
+        <v>7.015328407287598</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.688606262207031</v>
+        <v>-4.779996871948242</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.172102928161621</v>
+        <v>3.250783443450928</v>
       </c>
       <c r="B21" t="n">
-        <v>6.738854885101318</v>
+        <v>6.881857395172119</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.695774078369141</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>3.045745372772217</v>
-      </c>
-      <c r="B22" t="n">
-        <v>6.850325584411621</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-4.621981143951416</v>
+        <v>-4.688606262207031</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-03-09/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-09/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.373677730560303</v>
+        <v>-2.507025241851806</v>
       </c>
       <c r="B2" t="n">
-        <v>8.367032051086426</v>
+        <v>9.102962493896484</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.811180233955384</v>
+        <v>-0.6246470808982849</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.436809062957764</v>
+        <v>-2.812539100646973</v>
       </c>
       <c r="B3" t="n">
-        <v>8.002476692199707</v>
+        <v>9.111927032470703</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.409347295761108</v>
+        <v>-0.3471660315990448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.233324527740479</v>
+        <v>-2.887884616851806</v>
       </c>
       <c r="B4" t="n">
-        <v>7.347033500671387</v>
+        <v>9.205938339233398</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.329159736633301</v>
+        <v>-0.2687076330184936</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.557640552520752</v>
+        <v>-2.862497329711914</v>
       </c>
       <c r="B5" t="n">
-        <v>5.48013973236084</v>
+        <v>9.105484008789062</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.308228492736816</v>
+        <v>-0.2620421051979065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-6.2513108253479</v>
+        <v>-2.736449241638184</v>
       </c>
       <c r="B6" t="n">
-        <v>4.66443920135498</v>
+        <v>9.052282333374023</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.362371444702148</v>
+        <v>-0.2773746848106384</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-6.407595157623291</v>
+        <v>-2.651521682739258</v>
       </c>
       <c r="B7" t="n">
-        <v>5.533173084259033</v>
+        <v>9.127286911010742</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.768703460693359</v>
+        <v>0.0024068877100944</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.354794025421143</v>
+        <v>-2.57433032989502</v>
       </c>
       <c r="B8" t="n">
-        <v>3.896303415298462</v>
+        <v>9.058347702026367</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.691534996032715</v>
+        <v>0.0778785794973373</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>55.61550140380859</v>
+        <v>-2.764423370361328</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.603207588195801</v>
+        <v>9.000140190124512</v>
       </c>
       <c r="C9" t="n">
-        <v>15.50844955444336</v>
+        <v>-0.2859586775302887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.817588806152344</v>
+        <v>-2.818140029907227</v>
       </c>
       <c r="B10" t="n">
-        <v>5.203746795654297</v>
+        <v>8.811227798461914</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.701224803924561</v>
+        <v>-0.6212533712387085</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.208892345428467</v>
+        <v>-3.191051483154297</v>
       </c>
       <c r="B11" t="n">
-        <v>4.523828029632568</v>
+        <v>9.015185356140137</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.306243419647217</v>
+        <v>-0.4772885143756866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.054627418518066</v>
+        <v>-2.787490367889404</v>
       </c>
       <c r="B12" t="n">
-        <v>6.320723056793213</v>
+        <v>8.648155212402344</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.26066255569458</v>
+        <v>-1.196338057518005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.682106018066406</v>
+        <v>-3.373677730560303</v>
       </c>
       <c r="B13" t="n">
-        <v>6.276570796966553</v>
+        <v>8.367032051086426</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.233500480651856</v>
+        <v>-1.811180233955384</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.067971229553223</v>
+        <v>-3.436809062957764</v>
       </c>
       <c r="B14" t="n">
-        <v>7.197247505187988</v>
+        <v>8.002476692199707</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.232089042663574</v>
+        <v>-2.409347295761108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.399141788482666</v>
+        <v>-4.233324527740479</v>
       </c>
       <c r="B15" t="n">
-        <v>6.60714864730835</v>
+        <v>7.347033500671387</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.322453498840332</v>
+        <v>-3.329159736633301</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.337307453155518</v>
+        <v>-4.557640552520752</v>
       </c>
       <c r="B16" t="n">
-        <v>7.003424167633057</v>
+        <v>5.48013973236084</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.783712863922119</v>
+        <v>-4.308228492736816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.072117805480957</v>
+        <v>-6.2513108253479</v>
       </c>
       <c r="B17" t="n">
-        <v>7.399670124053955</v>
+        <v>4.66443920135498</v>
       </c>
       <c r="C17" t="n">
-        <v>-5.612285137176514</v>
+        <v>-5.362371444702148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.665160179138184</v>
+        <v>-6.407595157623291</v>
       </c>
       <c r="B18" t="n">
-        <v>6.522679805755615</v>
+        <v>5.533173084259033</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.401774883270264</v>
+        <v>-4.768703460693359</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.009289264678955</v>
+        <v>-6.354794025421143</v>
       </c>
       <c r="B19" t="n">
-        <v>6.934535980224609</v>
+        <v>3.896303415298462</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.890542030334473</v>
+        <v>-3.691534996032715</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.372682571411133</v>
+        <v>55.61550140380859</v>
       </c>
       <c r="B20" t="n">
-        <v>7.015328407287598</v>
+        <v>-7.603207588195801</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.779996871948242</v>
+        <v>15.50844955444336</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.250783443450928</v>
+        <v>-3.817588806152344</v>
       </c>
       <c r="B21" t="n">
-        <v>6.881857395172119</v>
+        <v>5.203746795654297</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.688606262207031</v>
+        <v>-4.701224803924561</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.208892345428467</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.523828029632568</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-5.306243419647217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4.054627418518066</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.320723056793213</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-5.26066255569458</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.682106018066406</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.276570796966553</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.233500480651856</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4.067971229553223</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.197247505187988</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-6.232089042663574</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.399141788482666</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6.60714864730835</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.322453498840332</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.337307453155518</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7.003424167633057</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-5.783712863922119</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.072117805480957</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7.399670124053955</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-5.612285137176514</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.665160179138184</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6.522679805755615</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.401774883270264</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.009289264678955</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6.934535980224609</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-4.890542030334473</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.372682571411133</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7.015328407287598</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-4.779996871948242</v>
       </c>
     </row>
   </sheetData>
